--- a/data/raw/ufgs_authoring.xlsx
+++ b/data/raw/ufgs_authoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benoit Loze\Desktop\99_CapstoneProject_Folders\00_GithubRepository\liverpool_csck700_capstone_project\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ED5ADB-7E45-45A6-BFBD-D902C154B41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB16377-1F1B-43A5-B5C6-3C2309BEA6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="76680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8B352821-A851-4093-8E29-D26ED0831F3A}"/>
   </bookViews>
@@ -338,9 +338,6 @@
     <t>IfcFooting</t>
   </si>
   <si>
-    <t>IfcDiscreetAccessory</t>
-  </si>
-  <si>
     <t>etim_exists</t>
   </si>
   <si>
@@ -822,6 +819,9 @@
   </si>
   <si>
     <t>etim_class_guid</t>
+  </si>
+  <si>
+    <t>IfcDiscreteAccessory</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1312,7 @@
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1334,7 +1334,7 @@
         <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1356,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1367,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1378,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1389,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1400,7 +1400,7 @@
         <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1411,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1419,10 +1419,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1430,10 +1430,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1441,10 +1441,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1455,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1463,10 +1463,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1474,10 +1474,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1488,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1496,10 +1496,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1507,10 +1507,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1518,10 +1518,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1529,10 +1529,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1540,10 +1540,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1551,10 +1551,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1562,10 +1562,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -1576,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -1587,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -1598,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -1609,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -1620,7 +1620,7 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -1631,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1657,44 +1657,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>114</v>
-      </c>
-      <c r="D1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
       </c>
       <c r="C2" s="9">
         <v>4.3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="9">
         <v>10</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1710,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -1854,7 +1854,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1901,7 +1901,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1987,58 +1987,58 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="S1" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="16" t="s">
+      <c r="X1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="Y1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="X1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AB1" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="AC1" s="12" t="s">
         <v>10</v>
@@ -2073,7 +2073,7 @@
         <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -2091,10 +2091,10 @@
         <v>27</v>
       </c>
       <c r="AD2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AE2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
@@ -2108,16 +2108,16 @@
         <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
@@ -2126,10 +2126,10 @@
         <v>27</v>
       </c>
       <c r="AD3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AE3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
@@ -2143,16 +2143,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -2161,10 +2161,10 @@
         <v>27</v>
       </c>
       <c r="AD4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
@@ -2178,16 +2178,16 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
@@ -2199,10 +2199,10 @@
         <v>27</v>
       </c>
       <c r="AD5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AE5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
@@ -2216,16 +2216,16 @@
         <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I6" t="s">
         <v>33</v>
@@ -2234,10 +2234,10 @@
         <v>27</v>
       </c>
       <c r="AD6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AE6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
@@ -2251,10 +2251,10 @@
         <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -2272,10 +2272,10 @@
         <v>27</v>
       </c>
       <c r="AD7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AE7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
@@ -2289,19 +2289,19 @@
         <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" t="s">
         <v>169</v>
-      </c>
-      <c r="H8" t="s">
-        <v>170</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
@@ -2310,10 +2310,10 @@
         <v>27</v>
       </c>
       <c r="AD8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AE8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
@@ -2330,7 +2330,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -2348,7 +2348,7 @@
         <v>27</v>
       </c>
       <c r="AD9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE9" t="s">
         <v>53</v>
@@ -2513,58 +2513,58 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="S1" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="16" t="s">
+      <c r="X1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="Y1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="X1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AB1" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="AC1" s="12" t="s">
         <v>10</v>
@@ -2599,13 +2599,13 @@
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -2620,7 +2620,7 @@
         <v>86</v>
       </c>
       <c r="AE2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
@@ -2634,16 +2634,16 @@
         <v>97</v>
       </c>
       <c r="D3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
         <v>186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>187</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -2658,7 +2658,7 @@
         <v>86</v>
       </c>
       <c r="AE3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
@@ -2675,13 +2675,13 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -2696,7 +2696,7 @@
         <v>86</v>
       </c>
       <c r="AE4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
@@ -2710,16 +2710,16 @@
         <v>97</v>
       </c>
       <c r="D5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" t="s">
         <v>189</v>
-      </c>
-      <c r="E5" t="s">
-        <v>190</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -2734,7 +2734,7 @@
         <v>86</v>
       </c>
       <c r="AE5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
@@ -2748,16 +2748,16 @@
         <v>97</v>
       </c>
       <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
         <v>191</v>
-      </c>
-      <c r="E6" t="s">
-        <v>192</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
@@ -2769,10 +2769,10 @@
         <v>40</v>
       </c>
       <c r="AD6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
@@ -2786,10 +2786,10 @@
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -2804,7 +2804,7 @@
         <v>40</v>
       </c>
       <c r="AD7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AE7" t="s">
         <v>63</v>
@@ -2821,10 +2821,10 @@
         <v>97</v>
       </c>
       <c r="D8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" t="s">
         <v>194</v>
-      </c>
-      <c r="E8" t="s">
-        <v>195</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -2839,10 +2839,10 @@
         <v>40</v>
       </c>
       <c r="AD8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
@@ -2856,16 +2856,16 @@
         <v>97</v>
       </c>
       <c r="D9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" t="s">
         <v>196</v>
-      </c>
-      <c r="E9" t="s">
-        <v>197</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I9" t="s">
         <v>33</v>
@@ -2874,10 +2874,10 @@
         <v>40</v>
       </c>
       <c r="AD9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AE9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3035,58 +3035,58 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="S1" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="16" t="s">
+      <c r="X1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="Y1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="X1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AB1" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="AC1" s="12" t="s">
         <v>10</v>
@@ -3121,7 +3121,7 @@
         <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -3151,7 +3151,7 @@
         <v>72</v>
       </c>
       <c r="AD2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE2" t="s">
         <v>73</v>
@@ -3171,7 +3171,7 @@
         <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -3189,10 +3189,10 @@
         <v>20</v>
       </c>
       <c r="AD3" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE3" t="s">
         <v>224</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
@@ -3206,10 +3206,10 @@
         <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -3227,7 +3227,7 @@
         <v>20</v>
       </c>
       <c r="AD4" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE4" s="14" t="s">
         <v>77</v>
@@ -3244,10 +3244,10 @@
         <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -3262,7 +3262,7 @@
         <v>20</v>
       </c>
       <c r="AD5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AE5" t="s">
         <v>79</v>
@@ -3279,16 +3279,16 @@
         <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
         <v>33</v>
@@ -3297,10 +3297,10 @@
         <v>20</v>
       </c>
       <c r="AD6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE6" t="s">
         <v>232</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
@@ -3314,10 +3314,10 @@
         <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
@@ -3335,10 +3335,10 @@
         <v>20</v>
       </c>
       <c r="AD7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE7" t="s">
         <v>234</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
@@ -3352,7 +3352,7 @@
         <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
         <v>82</v>
@@ -3373,10 +3373,10 @@
         <v>20</v>
       </c>
       <c r="AD8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE8" t="s">
         <v>236</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
@@ -3390,10 +3390,10 @@
         <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -3402,7 +3402,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I9" t="s">
         <v>33</v>
@@ -3411,10 +3411,10 @@
         <v>20</v>
       </c>
       <c r="AD9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE9" t="s">
         <v>240</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +3500,7 @@
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3573,58 +3573,58 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="S1" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="16" t="s">
+      <c r="X1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="Y1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="X1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AB1" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="AC1" s="12" t="s">
         <v>10</v>
@@ -3653,19 +3653,19 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
@@ -3690,7 +3690,7 @@
         <v>86</v>
       </c>
       <c r="AE2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
@@ -3701,13 +3701,13 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -3725,7 +3725,7 @@
         <v>89</v>
       </c>
       <c r="AE3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
@@ -3736,19 +3736,19 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
@@ -3775,19 +3775,19 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -3796,10 +3796,10 @@
         <v>34</v>
       </c>
       <c r="AD5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AE5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
